--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hc-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hc-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>C5ar1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H2">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.169425</v>
+        <v>1.14906</v>
       </c>
       <c r="N2">
-        <v>0.508275</v>
+        <v>3.44718</v>
       </c>
       <c r="O2">
-        <v>0.0005062042177611658</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P2">
-        <v>0.0005062042177611658</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q2">
-        <v>0.02588260545000001</v>
+        <v>0.01757717082</v>
       </c>
       <c r="R2">
-        <v>0.23294344905</v>
+        <v>0.15819453738</v>
       </c>
       <c r="S2">
-        <v>0.0005062042177611658</v>
+        <v>3.197030767669495E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005062042177611658</v>
+        <v>3.197030767669495E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H3">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>69.07203766666666</v>
+        <v>0.169425</v>
       </c>
       <c r="N3">
-        <v>207.216113</v>
+        <v>0.508275</v>
       </c>
       <c r="O3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q3">
-        <v>10.55195100223622</v>
+        <v>0.002591694225</v>
       </c>
       <c r="R3">
-        <v>94.96755902012599</v>
+        <v>0.023325248025</v>
       </c>
       <c r="S3">
-        <v>0.2063718860630059</v>
+        <v>4.713913440659359E-06</v>
       </c>
       <c r="T3">
-        <v>0.2063718860630059</v>
+        <v>4.713913440659359E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1527673333333333</v>
+        <v>0.015297</v>
       </c>
       <c r="H4">
-        <v>0.458302</v>
+        <v>0.045891</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0153746470927005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>234.189438</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N4">
-        <v>702.5683140000001</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q4">
-        <v>35.776495938092</v>
+        <v>2.375404659436</v>
       </c>
       <c r="R4">
-        <v>321.988463442828</v>
+        <v>21.378641934924</v>
       </c>
       <c r="S4">
-        <v>0.6997059540842085</v>
+        <v>0.004320514296442601</v>
       </c>
       <c r="T4">
-        <v>0.6997059540842085</v>
+        <v>0.004320514296442601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.015297</v>
+      </c>
+      <c r="H5">
+        <v>0.045891</v>
+      </c>
+      <c r="I5">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="J5">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.160095</v>
+      </c>
+      <c r="N5">
+        <v>0.480285</v>
+      </c>
+      <c r="O5">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P5">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q5">
+        <v>0.002448973215</v>
+      </c>
+      <c r="R5">
+        <v>0.022040758935</v>
+      </c>
+      <c r="S5">
+        <v>4.454324758933806E-06</v>
+      </c>
+      <c r="T5">
+        <v>4.454324758933806E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.015297</v>
+      </c>
+      <c r="H6">
+        <v>0.045891</v>
+      </c>
+      <c r="I6">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="J6">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N6">
+        <v>825.129487</v>
+      </c>
+      <c r="O6">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P6">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q6">
+        <v>4.207335254213</v>
+      </c>
+      <c r="R6">
+        <v>37.866017287917</v>
+      </c>
+      <c r="S6">
+        <v>0.007652528609618142</v>
+      </c>
+      <c r="T6">
+        <v>0.007652528609618143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.015297</v>
+      </c>
+      <c r="H7">
+        <v>0.045891</v>
+      </c>
+      <c r="I7">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="J7">
+        <v>0.0153746470927005</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N7">
+        <v>362.340271</v>
+      </c>
+      <c r="O7">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P7">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q7">
+        <v>1.847573041829</v>
+      </c>
+      <c r="R7">
+        <v>16.628157376461</v>
+      </c>
+      <c r="S7">
+        <v>0.003360465640763473</v>
+      </c>
+      <c r="T7">
+        <v>0.003360465640763473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H8">
+        <v>2.938958</v>
+      </c>
+      <c r="I8">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J8">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>1.14906</v>
+      </c>
+      <c r="N8">
+        <v>3.44718</v>
+      </c>
+      <c r="O8">
+        <v>0.00207941733452039</v>
+      </c>
+      <c r="P8">
+        <v>0.002079417334520391</v>
+      </c>
+      <c r="Q8">
+        <v>1.12567969316</v>
+      </c>
+      <c r="R8">
+        <v>10.13111723844</v>
+      </c>
+      <c r="S8">
+        <v>0.002047447026843695</v>
+      </c>
+      <c r="T8">
+        <v>0.002047447026843696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.1527673333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.458302</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H9">
+        <v>2.938958</v>
+      </c>
+      <c r="I9">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J9">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.169425</v>
+      </c>
+      <c r="N9">
+        <v>0.508275</v>
+      </c>
+      <c r="O9">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="P9">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="Q9">
+        <v>0.16597765305</v>
+      </c>
+      <c r="R9">
+        <v>1.49379887745</v>
+      </c>
+      <c r="S9">
+        <v>0.0003018891202574218</v>
+      </c>
+      <c r="T9">
+        <v>0.0003018891202574218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>31.266034</v>
-      </c>
-      <c r="N5">
-        <v>93.798102</v>
-      </c>
-      <c r="O5">
-        <v>0.09341595563502443</v>
-      </c>
-      <c r="P5">
-        <v>0.09341595563502442</v>
-      </c>
-      <c r="Q5">
-        <v>4.776428638089333</v>
-      </c>
-      <c r="R5">
-        <v>42.987857742804</v>
-      </c>
-      <c r="S5">
-        <v>0.09341595563502443</v>
-      </c>
-      <c r="T5">
-        <v>0.09341595563502442</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H10">
+        <v>2.938958</v>
+      </c>
+      <c r="I10">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J10">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>155.2856546666667</v>
+      </c>
+      <c r="N10">
+        <v>465.8569639999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="P10">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="Q10">
+        <v>152.1260056892791</v>
+      </c>
+      <c r="R10">
+        <v>1369.134051203512</v>
+      </c>
+      <c r="S10">
+        <v>0.2766949958737955</v>
+      </c>
+      <c r="T10">
+        <v>0.2766949958737955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H11">
+        <v>2.938958</v>
+      </c>
+      <c r="I11">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J11">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.160095</v>
+      </c>
+      <c r="N11">
+        <v>0.480285</v>
+      </c>
+      <c r="O11">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P11">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q11">
+        <v>0.15683749367</v>
+      </c>
+      <c r="R11">
+        <v>1.41153744303</v>
+      </c>
+      <c r="S11">
+        <v>0.0002852645046930025</v>
+      </c>
+      <c r="T11">
+        <v>0.0002852645046930025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H12">
+        <v>2.938958</v>
+      </c>
+      <c r="I12">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J12">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N12">
+        <v>825.129487</v>
+      </c>
+      <c r="O12">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P12">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q12">
+        <v>269.4467674282828</v>
+      </c>
+      <c r="R12">
+        <v>2425.020906854546</v>
+      </c>
+      <c r="S12">
+        <v>0.4900843341279578</v>
+      </c>
+      <c r="T12">
+        <v>0.4900843341279578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9796526666666665</v>
+      </c>
+      <c r="H13">
+        <v>2.938958</v>
+      </c>
+      <c r="I13">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="J13">
+        <v>0.9846253529072995</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N13">
+        <v>362.340271</v>
+      </c>
+      <c r="O13">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P13">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q13">
+        <v>118.3225375752909</v>
+      </c>
+      <c r="R13">
+        <v>1064.902838177618</v>
+      </c>
+      <c r="S13">
+        <v>0.215211422253752</v>
+      </c>
+      <c r="T13">
+        <v>0.215211422253752</v>
       </c>
     </row>
   </sheetData>
